--- a/Config/Excel/AdventureBuff.xlsx
+++ b/Config/Excel/AdventureBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72333E9F-8826-4BBB-8042-786860FA6326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF7AB01-9784-4CF6-B392-DF2C162DCD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9026BA40-65B6-4A38-906E-5597412E7DBB}"/>
   </bookViews>
@@ -549,12 +549,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
